--- a/StockList.xlsx
+++ b/StockList.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/baf176ae4d1433f9/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/baf176ae4d1433f9/Desktop/MTI/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{1D3027A8-6692-4872-B5E6-2C20FF4482EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1E3F558-9F0C-495B-9401-E8103E814030}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{1D3027A8-6692-4872-B5E6-2C20FF4482EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB94071E-9404-4505-BFDC-94256C32F01B}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{7641E60C-2DB3-434C-B9C4-18E430004F78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7641E60C-2DB3-434C-B9C4-18E430004F78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>QuoteSymbol</t>
   </si>
@@ -73,9 +72,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>XOM</t>
-  </si>
-  <si>
     <t>HP</t>
   </si>
   <si>
@@ -115,9 +111,6 @@
     <t>GD</t>
   </si>
   <si>
-    <t>GE</t>
-  </si>
-  <si>
     <t>MGA</t>
   </si>
   <si>
@@ -166,9 +159,6 @@
     <t>VZ</t>
   </si>
   <si>
-    <t>Indicies</t>
-  </si>
-  <si>
     <t>^GSPC</t>
   </si>
   <si>
@@ -212,6 +202,15 @@
   </si>
   <si>
     <t>PG</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>KDP</t>
   </si>
 </sst>
 </file>
@@ -578,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88632811-CD07-4DE9-8D5D-7B2FF96E9A7A}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:B57"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,19 +594,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>271</v>
@@ -615,7 +614,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>150</v>
@@ -623,7 +622,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>70</v>
@@ -631,7 +630,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -647,7 +646,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2">
         <v>50</v>
@@ -663,7 +662,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>150</v>
@@ -671,10 +670,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -703,7 +702,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -711,7 +710,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>23</v>
@@ -719,15 +718,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B17">
-        <v>69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -735,306 +734,289 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>48</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>256</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>40</v>
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="2">
-        <v>75</v>
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>80</v>
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="2">
-        <v>70</v>
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>14</v>
       </c>
-      <c r="B29">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="2">
-        <v>35</v>
+      <c r="B31">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32">
-        <v>40</v>
+      <c r="A32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="2">
-        <v>23</v>
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35">
-        <v>100</v>
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="2">
-        <v>22</v>
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B49">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52">
-        <v>70</v>
+      <c r="A52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53">
-        <v>70</v>
+      <c r="A53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="3">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="3">
-        <v>30</v>
+      <c r="B57" s="3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B53" xr:uid="{88632811-CD07-4DE9-8D5D-7B2FF96E9A7A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B53">
-      <sortCondition ref="A1:A53"/>
+  <autoFilter ref="A1:B51" xr:uid="{88632811-CD07-4DE9-8D5D-7B2FF96E9A7A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B51">
+      <sortCondition ref="A1:A51"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31DC095-84C7-438B-8E52-FBE1EAA72B5A}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/StockList.xlsx
+++ b/StockList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/baf176ae4d1433f9/Desktop/MTI/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{1D3027A8-6692-4872-B5E6-2C20FF4482EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB94071E-9404-4505-BFDC-94256C32F01B}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{1D3027A8-6692-4872-B5E6-2C20FF4482EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A656A9FC-CAD2-4D29-A472-C1E478ADBF1A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7641E60C-2DB3-434C-B9C4-18E430004F78}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7641E60C-2DB3-434C-B9C4-18E430004F78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>QuoteSymbol</t>
   </si>
@@ -202,12 +202,6 @@
   </si>
   <si>
     <t>PG</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>CVS</t>
   </si>
   <si>
     <t>KDP</t>
@@ -577,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88632811-CD07-4DE9-8D5D-7B2FF96E9A7A}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,22 +986,6 @@
         <v>55</v>
       </c>
       <c r="B55" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="3">
         <v>100</v>
       </c>
     </row>
